--- a/qa/01.测试用例/交互系统/邮箱系统设计/邮箱系统测试用例.xlsx
+++ b/qa/01.测试用例/交互系统/邮箱系统设计/邮箱系统测试用例.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="邮箱系统" sheetId="2" r:id="rId2"/>
     <sheet name="备注" sheetId="3" r:id="rId3"/>
     <sheet name="im" sheetId="4" r:id="rId4"/>
+    <sheet name="翻译" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="557">
   <si>
     <t>更新日期</t>
   </si>
@@ -1277,14 +1278,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱界面不刷新，不会看到邮件被顶替</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击收取时间最早的邮件，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>邮件B被顶替</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1493,10 +1486,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一件收取规则-操作终止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>分支</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1517,14 +1506,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>收取到该封邮件时，终止收取并提示mail_record_003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取到该封邮件时，终止收取并提示mail_record_004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>不会终止收取</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1620,10 +1601,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>附件图标中除了道具是tips，其他文字是程序字，要测一下文字显示是否正确</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>触发“一件领取”逻辑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1724,163 +1701,147 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>选中邮件A，邮件A发信人小于6个汉字对应字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中邮件B，邮件B发信人大于6个汉字对应字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题最多显示6个汉字对应的字符数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家手指落在邮件列表中，在水平方向向上的方向（包括斜向）滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家手指落在邮件列表中，水平方向向下的方向（包括斜向）滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件A为未读邮件，邮件B为已读邮件，邮件A发信时间晚于邮件B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件AB均为未读邮件，邮件A发信时间晚于邮件B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件AB均为已读邮件，邮件A发信时间晚于邮件B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置邮件内容为500文字（上限），查看内容在正文中显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱中无邮件，保持邮箱界面开启，收到多封邮件，点击一件收取按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会收取没有刷出的邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件收取规则-开启界面时收到邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一封邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱中有最后一封邮件，进行相关操作，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭邮箱，重新开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击邮箱其他非按钮位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中邮件A，邮件A发信人小于6个汉字对应字符</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中邮件B，邮件B发信人大于6个汉字对应字符</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件标题最多显示6个汉字对应的字符数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家手指落在邮件列表中，在水平方向向上的方向（包括斜向）滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家手指落在邮件列表中，水平方向向下的方向（包括斜向）滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件A为未读邮件，邮件B为已读邮件，邮件A发信时间晚于邮件B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件AB均为未读邮件，邮件A发信时间晚于邮件B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件AB均为已读邮件，邮件A发信时间晚于邮件B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置邮件内容为500文字（上限），查看内容在正文中显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱中无邮件，保持邮箱界面开启，收到多封邮件，点击一件收取按钮，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会收取没有刷出的邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一件收取规则-开启界面时收到邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一封邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱中有最后一封邮件，进行相关操作，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭邮箱，重新开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击邮箱其他非按钮位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>不显示附件栏位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据附件个数显示附件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件收取失败，为已读状态</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1945,7 +1906,308 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>执行测试（不包含收取失败和附近icon）</t>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面刷新，新邮件会顶替老邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_title</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inbox</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_tab1</t>
+  </si>
+  <si>
+    <t>系统邮件</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_laizi</t>
+  </si>
+  <si>
+    <t>来自：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">From: </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_yijianlingqu</t>
+  </si>
+  <si>
+    <t>一键领取</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect All</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_fujian</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_shouqu</t>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_youxiangjiangman</t>
+  </si>
+  <si>
+    <t>邮箱即将爆仓，请及时收取邮件</t>
+  </si>
+  <si>
+    <t>Your inbox is almost full, be sure to promptly collect mails!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_youxiangyiman</t>
+  </si>
+  <si>
+    <t>Your inbox is full, go collect some mails!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部收取成功！</t>
+  </si>
+  <si>
+    <t>Collected all!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currently no mail to be collected.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_record_002</t>
+  </si>
+  <si>
+    <t>收取成功！</t>
+  </si>
+  <si>
+    <t>Collected!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_record_003</t>
+  </si>
+  <si>
+    <t>金币要装不下啦，收取失败！</t>
+  </si>
+  <si>
+    <t>Coin limit reached. Failed to collect.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石要装不下啦，收取失败！</t>
+  </si>
+  <si>
+    <t>Diamond limit reached. Failed to collect.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_CollectedAll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_record_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可操作的邮件哦！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中带有附件，玩家在不同条件下，点击收取按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取成功，多余金币作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取成功，对于钻石作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取成功，多余经验作废</t>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行测试剩余部分(UI,收取上限等)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行测试（不包含收取失败和附件icon）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件中有金币，玩家金币数量与附件金币之和超过金币上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件中有钻石，玩家钻石数量与附件钻石之和超过钻石上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件中有经验，玩家经验数量与附件经验之和超过经验上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件收取逻辑-首次超出上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件中带有附件，玩家金币数量与附件金币之和超过金币上限，玩家此外从触发过货币超上限情况，收取附件后查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次触发货币上限情况，查看货币上限提示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件收取成功，同时触发通用货币上限提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在触发货币上限提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件收取失败，为已读状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件收取规则-上限情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击收取时间最早的邮件，此时有新邮件进入，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱界面右侧保持玩家读取的邮件不变，左侧邮件列表刷新</t>
+  </si>
+  <si>
+    <t>带有附件的已读邮件C是接收时间最早的邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击收取最早的邮件，该邮件带有附件，有新邮件进入后，点击收取按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取失败，弹出IM提示信息mail_record_005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1953,7 +2215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2081,8 +2343,64 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,13 +2439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,7 +2531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2318,9 +2642,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2348,7 +2669,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2360,6 +2681,64 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2367,7 +2746,112 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2416,6 +2900,195 @@
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2493,44 +3166,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1597025</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>143521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10820400" y="10648950"/>
-          <a:ext cx="428625" cy="175271"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>62</xdr:row>
@@ -2550,7 +3185,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2588,7 +3223,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2609,18 +3244,56 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533052</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>76014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18434050" y="38735000"/>
+          <a:ext cx="2774602" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1479550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2196910</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>34833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2633,8 +3306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18434050" y="38735000"/>
-          <a:ext cx="2774602" cy="1485714"/>
+          <a:off x="10725150" y="10554454"/>
+          <a:ext cx="717360" cy="345229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2911,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2946,13 +3619,13 @@
         <v>42265</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F23" s="14">
         <v>3851</v>
@@ -2962,23 +3635,31 @@
       <c r="B24" s="17">
         <v>42268</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>486</v>
+      <c r="C24" s="52" t="s">
+        <v>540</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="52" t="s">
-        <v>482</v>
+      <c r="F24" s="51" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="17">
+        <v>42296</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>538</v>
+      </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>4459</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2988,13 +3669,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J131" sqref="J131"/>
+      <selection pane="bottomRight" activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -3056,16 +3737,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>200</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3089,14 +3770,14 @@
         <v>18</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="I4" s="46"/>
+        <v>404</v>
+      </c>
+      <c r="I4" s="45"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -3104,11 +3785,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.4">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
@@ -3127,14 +3808,14 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
+      <c r="H6" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -3145,14 +3826,14 @@
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3163,11 +3844,11 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="H8" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="22" t="s">
@@ -3176,8 +3857,8 @@
       <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>411</v>
+      <c r="H9" s="49" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3185,13 +3866,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>411</v>
+        <v>403</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.25">
@@ -3207,8 +3888,8 @@
       <c r="G11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="50" t="s">
-        <v>411</v>
+      <c r="H11" s="49" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3218,8 +3899,8 @@
       <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="50" t="s">
-        <v>411</v>
+      <c r="H12" s="49" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3229,8 +3910,8 @@
       <c r="G13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="50" t="s">
-        <v>411</v>
+      <c r="H13" s="49" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.25">
@@ -3243,18 +3924,18 @@
       <c r="G14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="H14" s="49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>201</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="45"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
@@ -3276,7 +3957,7 @@
         <v>88</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -3287,7 +3968,7 @@
         <v>183</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -3301,7 +3982,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -3315,7 +3996,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -3326,7 +4007,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -3337,7 +4018,7 @@
         <v>52</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -3348,7 +4029,7 @@
         <v>52</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -3359,7 +4040,7 @@
         <v>53</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -3369,8 +4050,8 @@
       <c r="G25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="51" t="s">
-        <v>410</v>
+      <c r="H25" s="50" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -3381,7 +4062,7 @@
         <v>56</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -3391,8 +4072,8 @@
       <c r="G27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="51" t="s">
-        <v>420</v>
+      <c r="H27" s="50" t="s">
+        <v>414</v>
       </c>
       <c r="I27" s="22">
         <v>673</v>
@@ -3405,8 +4086,8 @@
       <c r="G28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="51" t="s">
-        <v>410</v>
+      <c r="H28" s="50" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -3420,7 +4101,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -3451,7 +4132,7 @@
         <v>126</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -3465,10 +4146,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -3479,7 +4160,7 @@
         <v>195</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -3493,7 +4174,7 @@
         <v>90</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
@@ -3509,8 +4190,8 @@
       <c r="G35" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="50" t="s">
-        <v>430</v>
+      <c r="H35" s="53" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
@@ -3520,8 +4201,11 @@
       <c r="G36" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="50" t="s">
-        <v>431</v>
+      <c r="H36" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="22">
+        <v>935</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
@@ -3534,8 +4218,8 @@
       <c r="G37" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="38" t="s">
-        <v>410</v>
+      <c r="H37" s="50" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
@@ -3546,7 +4230,7 @@
         <v>104</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I38" s="22">
         <v>675</v>
@@ -3560,7 +4244,7 @@
         <v>104</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
@@ -3571,7 +4255,7 @@
         <v>104</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -3582,7 +4266,7 @@
         <v>105</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I41" s="22">
         <v>675</v>
@@ -3599,7 +4283,7 @@
         <v>136</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
@@ -3610,7 +4294,7 @@
         <v>108</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
@@ -3621,7 +4305,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
@@ -3632,7 +4316,7 @@
         <v>108</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
@@ -3643,7 +4327,7 @@
         <v>112</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
@@ -3657,7 +4341,7 @@
         <v>114</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I47" s="22">
         <v>679</v>
@@ -3671,7 +4355,7 @@
         <v>119</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
@@ -3682,7 +4366,7 @@
         <v>116</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
@@ -3693,7 +4377,7 @@
         <v>120</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
@@ -3709,8 +4393,8 @@
       <c r="G51" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="50" t="s">
-        <v>432</v>
+      <c r="H51" s="53" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.25">
@@ -3721,7 +4405,7 @@
         <v>125</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -3735,7 +4419,7 @@
         <v>129</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.25">
@@ -3749,7 +4433,7 @@
         <v>132</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.25">
@@ -3760,7 +4444,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.25">
@@ -3771,7 +4455,7 @@
         <v>105</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I56" s="22">
         <v>675</v>
@@ -3788,29 +4472,29 @@
         <v>137</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F58" s="22" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>138</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F59" s="22" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.25">
@@ -3824,7 +4508,7 @@
         <v>140</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I60" s="22">
         <v>679</v>
@@ -3841,7 +4525,7 @@
         <v>142</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
@@ -3858,7 +4542,7 @@
         <v>143</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
@@ -3866,10 +4550,10 @@
         <v>145</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="H63" s="51" t="s">
-        <v>447</v>
+        <v>459</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
@@ -3877,10 +4561,10 @@
         <v>152</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -3890,8 +4574,8 @@
       <c r="G65" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="H65" s="50" t="s">
-        <v>469</v>
+      <c r="H65" s="53" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -3905,7 +4589,7 @@
         <v>149</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -3921,7 +4605,9 @@
       <c r="G67" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="H67" s="38"/>
+      <c r="H67" s="38" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F68" s="22" t="s">
@@ -3931,7 +4617,7 @@
         <v>158</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -3942,18 +4628,19 @@
         <v>157</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F70" s="22" t="s">
+      <c r="E70" s="63"/>
+      <c r="F70" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="H70" s="50" t="s">
-        <v>466</v>
+      <c r="H70" s="65" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -3964,7 +4651,7 @@
         <v>253</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -3978,7 +4665,7 @@
         <v>162</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -3989,10 +4676,10 @@
         <v>160</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -4003,10 +4690,10 @@
         <v>167</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -4020,7 +4707,7 @@
         <v>170</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -4034,7 +4721,7 @@
         <v>172</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -4060,7 +4747,7 @@
         <v>177</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -4071,7 +4758,7 @@
         <v>178</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -4088,7 +4775,7 @@
         <v>180</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -4099,7 +4786,7 @@
         <v>181</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -4119,13 +4806,13 @@
         <v>185</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>186</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -4136,7 +4823,7 @@
         <v>186</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -4147,29 +4834,29 @@
         <v>186</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F86" s="22" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G86" s="22" t="s">
         <v>186</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F87" s="22" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>186</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -4195,30 +4882,30 @@
         <v>191</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="C90" s="22"/>
       <c r="F90" s="22" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>192</v>
       </c>
       <c r="H90" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="F91" s="22" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G91" s="22" t="s">
         <v>193</v>
       </c>
       <c r="H91" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4229,7 +4916,7 @@
         <v>197</v>
       </c>
       <c r="H92" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -4243,7 +4930,7 @@
         <v>199</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -4266,7 +4953,7 @@
         <v>204</v>
       </c>
       <c r="H95" s="38" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -4277,10 +4964,10 @@
         <v>212</v>
       </c>
       <c r="H96" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F97" s="22" t="s">
         <v>206</v>
       </c>
@@ -4288,10 +4975,10 @@
         <v>213</v>
       </c>
       <c r="H97" s="38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F98" s="22" t="s">
         <v>207</v>
       </c>
@@ -4299,10 +4986,10 @@
         <v>212</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F99" s="22" t="s">
         <v>208</v>
       </c>
@@ -4310,10 +4997,10 @@
         <v>213</v>
       </c>
       <c r="H99" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F100" s="22" t="s">
         <v>209</v>
       </c>
@@ -4321,10 +5008,10 @@
         <v>212</v>
       </c>
       <c r="H100" s="38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F101" s="22" t="s">
         <v>210</v>
       </c>
@@ -4332,10 +5019,10 @@
         <v>213</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F102" s="22" t="s">
         <v>211</v>
       </c>
@@ -4343,10 +5030,10 @@
         <v>214</v>
       </c>
       <c r="H102" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D103" s="38">
         <v>2</v>
       </c>
@@ -4357,10 +5044,10 @@
         <v>216</v>
       </c>
       <c r="H103" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F104" s="22" t="s">
         <v>217</v>
       </c>
@@ -4368,10 +5055,10 @@
         <v>218</v>
       </c>
       <c r="H104" s="38" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D105" s="38">
         <v>3</v>
       </c>
@@ -4382,16 +5069,16 @@
         <v>222</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I105" s="22">
         <v>695</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B107" s="38" t="s">
         <v>173</v>
       </c>
@@ -4402,19 +5089,19 @@
         <v>1</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G107" s="22" t="s">
         <v>220</v>
       </c>
       <c r="H107" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="38" t="s">
         <v>27</v>
       </c>
@@ -4431,46 +5118,43 @@
         <v>249</v>
       </c>
       <c r="H109" s="38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F110" s="22" t="s">
         <v>147</v>
       </c>
       <c r="G110" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="H110" s="50" t="s">
-        <v>432</v>
+      <c r="H110" s="53" t="s">
+        <v>478</v>
       </c>
       <c r="I110" s="22">
         <v>700</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F111" s="22" t="s">
         <v>225</v>
       </c>
       <c r="G111" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="H111" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="J111" s="22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F112" s="22" t="s">
         <v>226</v>
       </c>
       <c r="G112" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H112" s="50" t="s">
-        <v>432</v>
+      <c r="H112" s="53" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -4480,8 +5164,8 @@
       <c r="G113" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H113" s="50" t="s">
-        <v>432</v>
+      <c r="H113" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -4497,8 +5181,8 @@
       <c r="G114" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="H114" s="50" t="s">
-        <v>432</v>
+      <c r="H114" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -4508,8 +5192,8 @@
       <c r="G115" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="H115" s="50" t="s">
-        <v>432</v>
+      <c r="H115" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -4519,8 +5203,8 @@
       <c r="G116" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H116" s="50" t="s">
-        <v>432</v>
+      <c r="H116" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -4536,8 +5220,8 @@
       <c r="G117" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H117" s="50" t="s">
-        <v>432</v>
+      <c r="H117" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
@@ -4547,8 +5231,8 @@
       <c r="G118" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="H118" s="50" t="s">
-        <v>432</v>
+      <c r="H118" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -4559,8 +5243,8 @@
       <c r="G119" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H119" s="50" t="s">
-        <v>432</v>
+      <c r="H119" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -4576,8 +5260,8 @@
       <c r="G120" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H120" s="50" t="s">
-        <v>432</v>
+      <c r="H120" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
@@ -4587,8 +5271,8 @@
       <c r="G121" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H121" s="50" t="s">
-        <v>432</v>
+      <c r="H121" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -4598,8 +5282,8 @@
       <c r="G122" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H122" s="50" t="s">
-        <v>432</v>
+      <c r="H122" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
@@ -4616,8 +5300,8 @@
       <c r="G123" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="H123" s="50" t="s">
-        <v>432</v>
+      <c r="H123" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -4627,8 +5311,8 @@
       <c r="G124" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="H124" s="50" t="s">
-        <v>432</v>
+      <c r="H124" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
@@ -4639,8 +5323,8 @@
       <c r="G125" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="H125" s="50" t="s">
-        <v>432</v>
+      <c r="H125" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
@@ -4662,8 +5346,8 @@
       <c r="G127" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="H127" s="50" t="s">
-        <v>432</v>
+      <c r="H127" s="53" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -4679,8 +5363,8 @@
       <c r="G128" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="H128" s="50" t="s">
-        <v>432</v>
+      <c r="H128" s="53" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -4690,8 +5374,8 @@
       <c r="G129" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H129" s="50" t="s">
-        <v>432</v>
+      <c r="H129" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
@@ -4701,8 +5385,8 @@
       <c r="G130" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="H130" s="50" t="s">
-        <v>432</v>
+      <c r="H130" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
@@ -4712,18 +5396,20 @@
       <c r="G131" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="H131" s="50" t="s">
-        <v>432</v>
+      <c r="H131" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F132" s="22" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="H132" s="50"/>
+        <v>470</v>
+      </c>
+      <c r="H132" s="53" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D133" s="38">
@@ -4738,8 +5424,8 @@
       <c r="G133" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="H133" s="38" t="s">
-        <v>421</v>
+      <c r="H133" s="50" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
@@ -4749,8 +5435,8 @@
       <c r="G134" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="H134" s="38" t="s">
-        <v>426</v>
+      <c r="H134" s="50" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
@@ -4761,7 +5447,7 @@
         <v>280</v>
       </c>
       <c r="H135" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
@@ -4772,7 +5458,7 @@
         <v>280</v>
       </c>
       <c r="H136" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -4788,7 +5474,9 @@
       <c r="G137" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="H137" s="38"/>
+      <c r="H137" s="53" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F138" s="22" t="s">
@@ -4798,7 +5486,7 @@
         <v>266</v>
       </c>
       <c r="H138" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -4809,7 +5497,7 @@
         <v>267</v>
       </c>
       <c r="H139" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
@@ -4820,1192 +5508,1358 @@
         <v>268</v>
       </c>
       <c r="H140" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H141" s="38"/>
     </row>
     <row r="142" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D142" s="38">
+      <c r="D142" s="66">
         <v>1</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F142" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="G142" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="H142" s="50" t="s">
-        <v>432</v>
+      <c r="G142" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="H142" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F143" s="22" t="s">
+      <c r="B143" s="66"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="G143" s="22" t="s">
+      <c r="G143" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="H143" s="50" t="s">
-        <v>432</v>
+      <c r="H143" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F144" s="22" t="s">
+      <c r="B144" s="66"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="66"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="G144" s="22" t="s">
+      <c r="G144" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="H144" s="50" t="s">
-        <v>432</v>
+      <c r="H144" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F145" s="22" t="s">
+      <c r="B145" s="66"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="G145" s="22" t="s">
+      <c r="G145" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="H145" s="50" t="s">
-        <v>432</v>
+      <c r="H145" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="D146" s="38">
+      <c r="B146" s="66"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="66">
         <v>2</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="G146" s="22" t="s">
+      <c r="F146" s="64"/>
+      <c r="G146" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="H146" s="50" t="s">
-        <v>432</v>
+      <c r="H146" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="38">
+      <c r="B147" s="66"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="66">
         <v>3</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F147" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="G147" s="22" t="s">
+      <c r="G147" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="H147" s="50" t="s">
-        <v>432</v>
+      <c r="H147" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F148" s="22" t="s">
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="G148" s="22" t="s">
+      <c r="G148" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="H148" s="50" t="s">
-        <v>432</v>
+      <c r="H148" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F149" s="22" t="s">
+      <c r="B149" s="66"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="G149" s="22" t="s">
+      <c r="G149" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="H149" s="50" t="s">
-        <v>432</v>
+      <c r="H149" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F150" s="22" t="s">
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="G150" s="22" t="s">
+      <c r="G150" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="H150" s="50" t="s">
-        <v>432</v>
+      <c r="H150" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C151" s="22"/>
-      <c r="D151" s="38">
+      <c r="B151" s="66"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="66">
         <v>4</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="F151" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="G151" s="22" t="s">
+      <c r="G151" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="H151" s="50" t="s">
-        <v>432</v>
+      <c r="H151" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F152" s="22" t="s">
+      <c r="B152" s="66"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="G152" s="22" t="s">
+      <c r="G152" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="H152" s="50" t="s">
-        <v>432</v>
+      <c r="H152" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F153" s="22" t="s">
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="G153" s="22" t="s">
+      <c r="G153" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="H153" s="50" t="s">
-        <v>432</v>
+      <c r="H153" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F154" s="22" t="s">
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="G154" s="22" t="s">
+      <c r="G154" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="H154" s="50" t="s">
-        <v>432</v>
+      <c r="H154" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="D155" s="38">
+      <c r="B155" s="66"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66">
         <v>5</v>
       </c>
-      <c r="E155" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="H155" s="50" t="s">
-        <v>432</v>
+      <c r="E155" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="F155" s="64"/>
+      <c r="G155" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="H155" s="49" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H156" s="38"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>159</v>
+    <row r="157" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B157" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="D157" s="38">
         <v>1</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H157" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F158" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="H158" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F159" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="H159" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="38"/>
+    </row>
+    <row r="161" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="C161" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D161" s="38">
+        <v>1</v>
+      </c>
+      <c r="E161" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D162" s="38">
+        <v>2</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="38"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D164" s="38">
+        <v>1</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="H164" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F165" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G165" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="G157" s="22" t="s">
+      <c r="H165" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F166" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="G166" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H157" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F158" s="22" t="s">
+      <c r="H166" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F167" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="G158" s="22" t="s">
+      <c r="G167" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="H158" s="38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F159" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H159" s="38" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F160" s="22" t="s">
+      <c r="H167" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D168" s="38">
+        <v>2</v>
+      </c>
+      <c r="E168" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="G160" s="22" t="s">
+      <c r="G168" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="H168" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F169" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="G169" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="H169" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F170" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="H160" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D161" s="38">
-        <v>2</v>
-      </c>
-      <c r="E161" s="23" t="s">
+      <c r="G170" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H170" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F171" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="G161" s="22" t="s">
+      <c r="G171" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H171" s="38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F172" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G172" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H172" s="38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D173" s="38">
+        <v>3</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="F173" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="H161" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F162" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="H162" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F163" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G163" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="H163" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F164" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G164" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="H164" s="38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F165" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="G165" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="H165" s="38" t="s">
+      <c r="G173" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="H173" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F174" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="G174" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="H174" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F175" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G175" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="H175" s="38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D176" s="38">
+        <v>4</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F176" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H176" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F177" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="H177" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="I177" s="22">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F178" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G178" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="H178" s="49" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D166" s="38">
-        <v>3</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="F166" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="G166" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="H166" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F167" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="G167" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="H167" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F168" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="G168" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="H168" s="38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D169" s="38">
-        <v>4</v>
-      </c>
-      <c r="E169" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="H169" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F170" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="H170" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="I170" s="22">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F171" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="H171" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D172" s="38">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D179" s="38">
         <v>5</v>
       </c>
-      <c r="E172" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="F172" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="G172" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="H172" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F173" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="G173" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="H173" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="38"/>
-    </row>
-    <row r="175" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B175" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="C175" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="D175" s="38">
-        <v>1</v>
-      </c>
-      <c r="E175" s="23" t="s">
+      <c r="E179" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="F175" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="G175" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="H175" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F176" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="H176" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F177" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="H177" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D178" s="38">
-        <v>2</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="F178" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="H178" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F179" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H179" s="50" t="s">
-        <v>432</v>
+        <v>390</v>
+      </c>
+      <c r="G179" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F180" s="22" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="G180" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="H180" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H181" s="38"/>
+    </row>
+    <row r="182" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B182" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="D182" s="38">
+        <v>1</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F182" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H182" s="38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F183" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="G183" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H183" s="38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D184" s="73"/>
+      <c r="F184" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G184" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H184" s="38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D185" s="73">
+        <v>2</v>
+      </c>
+      <c r="E185" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="F185" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="G185" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="H185" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D186" s="73"/>
+      <c r="E186" s="68"/>
+      <c r="F186" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G186" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="H186" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D187" s="73"/>
+      <c r="F187" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="G187" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="H187" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D188" s="71">
+        <v>3</v>
+      </c>
+      <c r="E188" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="F188" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="G188" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="H188" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D189" s="71"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="G189" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="H189" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D190" s="71"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="G190" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="H190" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D191" s="71"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="G191" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="H191" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D192" s="73">
+        <v>4</v>
+      </c>
+      <c r="E192" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="F192" s="69"/>
+      <c r="G192" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="H192" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G193" s="40"/>
+      <c r="H193" s="38"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D194" s="38">
+        <v>1</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G194" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="H180" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D181" s="38">
-        <v>3</v>
-      </c>
-      <c r="E181" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F181" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G181" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="H181" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F182" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G182" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="H182" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F183" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G183" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="H183" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F184" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G184" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="H184" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D185" s="38">
-        <v>4</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="G185" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="H185" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G186" s="41"/>
-      <c r="H186" s="38"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="C187" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="D187" s="38">
+      <c r="H194" s="49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H195" s="38"/>
+    </row>
+    <row r="196" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="B196" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C196" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="D196" s="38">
         <v>1</v>
       </c>
-      <c r="E187" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G187" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="H187" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="38"/>
-    </row>
-    <row r="189" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B189" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="C189" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="D189" s="38">
+      <c r="E196" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="H196" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="I196" s="22">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H197" s="38"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C198" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D198" s="38">
         <v>1</v>
       </c>
-      <c r="E189" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="G189" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H189" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="I189" s="22">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="38"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D191" s="38">
-        <v>1</v>
-      </c>
-      <c r="E191" s="23" t="s">
+      <c r="E198" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="F191" s="22" t="s">
+      <c r="F198" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G191" s="22" t="s">
+      <c r="G198" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="H191" s="38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F192" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G192" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="H192" s="38" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F193" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G193" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="H193" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F194" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G194" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H194" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D195" s="38">
-        <v>2</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F195" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G195" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="H195" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F196" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G196" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H196" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="I196" s="22">
-        <v>674</v>
-      </c>
-      <c r="J196" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F197" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="G197" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="H197" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="I197" s="22">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D198" s="38">
-        <v>3</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F198" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G198" s="22" t="s">
-        <v>304</v>
-      </c>
       <c r="H198" s="38" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F199" s="22" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H199" s="38" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F200" s="22" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H200" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="I200" s="22">
-        <v>678</v>
+        <v>419</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H201" s="38"/>
-    </row>
-    <row r="202" spans="2:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="B202" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C202" s="38" t="s">
-        <v>307</v>
-      </c>
+      <c r="F201" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="H201" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D202" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H202" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F203" s="22" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H203" s="38" t="s">
-        <v>425</v>
+        <v>414</v>
+      </c>
+      <c r="I203" s="22">
+        <v>674</v>
+      </c>
+      <c r="J203" s="22" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D204" s="38">
-        <v>2</v>
-      </c>
-      <c r="E204" s="23" t="s">
-        <v>313</v>
-      </c>
       <c r="F204" s="22" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="G204" s="22" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H204" s="38" t="s">
-        <v>455</v>
+        <v>416</v>
+      </c>
+      <c r="I204" s="22">
+        <v>678</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D205" s="38">
+        <v>3</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>300</v>
+      </c>
       <c r="F205" s="22" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="H205" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F206" s="22" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="H206" s="38" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H207" s="38"/>
-    </row>
-    <row r="208" spans="2:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="B208" s="38" t="s">
+      <c r="F207" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G207" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H207" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="I207" s="22">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H208" s="38"/>
+    </row>
+    <row r="209" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B209" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C209" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D209" s="38">
+        <v>1</v>
+      </c>
+      <c r="E209" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H209" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F210" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="H210" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D211" s="38">
+        <v>2</v>
+      </c>
+      <c r="E211" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F211" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H211" s="38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F212" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H212" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F213" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G213" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H213" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H214" s="38"/>
+    </row>
+    <row r="215" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B215" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C208" s="38" t="s">
+      <c r="C215" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="D208" s="38">
+      <c r="D215" s="38">
         <v>1</v>
       </c>
-      <c r="E208" s="23" t="s">
+      <c r="E215" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F208" s="22" t="s">
+      <c r="F215" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="G208" s="22" t="s">
+      <c r="G215" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="H208" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F209" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="G209" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="H209" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="I209" s="22">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D210" s="38">
-        <v>2</v>
-      </c>
-      <c r="E210" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="F210" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="G210" s="40"/>
-      <c r="H210" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F211" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G211" s="40"/>
-      <c r="H211" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="F212" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="G212" s="40"/>
-      <c r="H212" s="50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="G213" s="40"/>
-    </row>
-    <row r="214" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B214" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="C214" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="D214" s="38">
-        <v>1</v>
-      </c>
-      <c r="E214" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F214" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G214" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H214" s="38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F215" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="G215" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="H215" s="38" t="s">
-        <v>426</v>
+      <c r="H215" s="50" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F216" s="22" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="G216" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="H216" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D217" s="38">
+        <v>481</v>
+      </c>
+      <c r="H216" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="I216" s="22">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D217" s="74">
         <v>2</v>
       </c>
-      <c r="E217" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="F217" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G217" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H217" s="38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F218" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="G218" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H218" s="38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F219" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="G219" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="H219" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F220" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="G220" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="H220" s="38" t="s">
-        <v>425</v>
+      <c r="E217" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="F217" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="G217" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="H217" s="53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D218" s="74"/>
+      <c r="E218" s="75"/>
+      <c r="F218" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="G218" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="H218" s="53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="74"/>
+      <c r="E219" s="75"/>
+      <c r="F219" s="76" t="s">
+        <v>553</v>
+      </c>
+      <c r="G219" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="H219" s="53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="74">
+        <v>3</v>
+      </c>
+      <c r="E220" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="F220" s="76"/>
+      <c r="G220" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="H220" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="I220" s="22">
+        <v>1026</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F221" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G221" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="H221" s="38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="G221" s="40"/>
+    </row>
+    <row r="222" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B222" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D222" s="38">
+        <v>1</v>
+      </c>
+      <c r="E222" s="23" t="s">
+        <v>326</v>
+      </c>
       <c r="F222" s="22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G222" s="22" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="H222" s="38" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F223" s="22" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G223" s="22" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H223" s="38" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F224" s="22" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G224" s="22" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H224" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D225" s="38">
+        <v>2</v>
+      </c>
+      <c r="E225" s="23" t="s">
+        <v>333</v>
+      </c>
       <c r="F225" s="22" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="H225" s="38" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D226" s="38">
-        <v>3</v>
-      </c>
-      <c r="E226" s="23" t="s">
-        <v>350</v>
+      <c r="F226" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H226" s="38" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H227" s="38"/>
+      <c r="F227" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G227" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="H227" s="38" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="C228" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="D228" s="38">
-        <v>1</v>
-      </c>
-      <c r="E228" s="23" t="s">
-        <v>460</v>
-      </c>
       <c r="F228" s="22" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="G228" s="22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H228" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F229" s="22" t="s">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="G229" s="22" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="H229" s="38" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D230" s="38">
+      <c r="F230" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G230" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H230" s="38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F231" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G231" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H231" s="38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F232" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G232" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H232" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F233" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="G233" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="H233" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D234" s="38">
+        <v>3</v>
+      </c>
+      <c r="E234" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G234" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="H234" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="38"/>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C236" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="D236" s="38">
+        <v>1</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F236" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H236" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F237" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="G237" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H237" s="38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D238" s="38">
         <v>2</v>
       </c>
-      <c r="E230" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="G230" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H230" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H231" s="38"/>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H232" s="38"/>
+      <c r="E238" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="G238" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H238" s="38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="38"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H214:H227 H17:H212">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="H222:H235 H17:H220">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H214:H227 H17:H212">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+  <conditionalFormatting sqref="H222:H235 H17:H220">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111 J128">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="14">
       <formula>LEN(TRIM(J111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H228:H232">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="H236:H240">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H228:H232">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H236:H240">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6027,12 +6881,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6320,4 +7174,409 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55" t="s">
+        <v>490</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="K11">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="K14">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="54" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="K20">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55" t="s">
+        <v>517</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="J23" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J23">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J23">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/qa/01.测试用例/交互系统/邮箱系统设计/邮箱系统测试用例.xlsx
+++ b/qa/01.测试用例/交互系统/邮箱系统设计/邮箱系统测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="im" sheetId="4" r:id="rId4"/>
     <sheet name="翻译" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="589">
   <si>
     <t>更新日期</t>
   </si>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>界面包括标题区域，邮件数量区域，切页标签，邮件列表，邮件内容显示区域，一键领取按钮，关闭按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>查看邮件样式</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -392,10 +388,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>邮件列表显示为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>邮件为包含附件邮件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1338,14 +1330,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>邮件自动删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件自动删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>点击未读带附件邮件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1402,155 +1386,143 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>查看收取顺序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上到下逐封收取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看收取情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动收取含附件邮件，包括已读和未读</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件收取过程中，查看邮件变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件为未读文本邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件为未读附件邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件为已读附件邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件为已读文本邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取过程中，邮件样式无变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取邮件时，不会在邮件内容显示框显示对应内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取过程中，邮件样式无变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部邮件收取结束后，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发收取成功提示框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看邮箱清空情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看邮箱刷新情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看收取数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一封邮件的附件中有金币，玩家金币数量与附件金币之和超过金币上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一封邮件的附件中有钻石，玩家钻石数量与附件钻石之和超过钻石上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一封邮件的附件中有经验，玩家经验数量与附件经验之和超过经验上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取失败，弹出提示信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会终止收取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有邮件A导致收取失败后，查看变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件A之前的邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件A以及之后的邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件收取成功，并从邮件列表中清除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端刷新邮件列表和邮件内容显示框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效和按钮样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>im</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>邮箱中有多封邮件，点击一件收取按钮，查看触发情况</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>查看收取顺序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从上到下逐封收取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看收取情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动收取含附件邮件，包括已读和未读</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一件收取过程中，查看邮件变化情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件为未读文本邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件为未读附件邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件为已读附件邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件为已读文本邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取过程中，邮件样式无变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取邮件时，不会在邮件内容显示框显示对应内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取过程中，邮件样式无变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看提示框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部邮件收取结束后，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发收取成功提示框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看邮箱清空情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看邮箱刷新情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始对当前切页邮件进行收取操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看收取数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某一封邮件的附件中有金币，玩家金币数量与附件金币之和超过金币上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某一封邮件的附件中有钻石，玩家钻石数量与附件钻石之和超过钻石上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>某一封邮件的附件中有经验，玩家经验数量与附件经验之和超过经验上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取失败，弹出提示信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会终止收取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有邮件A导致收取失败后，查看变化情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件A之前的邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件A以及之后的邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件收取成功，并从邮件列表中清除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端刷新邮件列表和邮件内容显示框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效和按钮样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>im</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱中有多封邮件，点击一件收取按钮，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱中无邮件，点击一件收取按钮，查看触发情况</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>弹出提示信息mail_record_001</t>
-  </si>
-  <si>
-    <t>一件收取规则-无邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分支</t>
@@ -2208,6 +2180,163 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看玩家拥有金币钻石显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与主界面显示规则一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选中时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括邮件类型图标，邮件标题，发信人，发信日期，邮件状态提示图，选中标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面包括标题区域，邮件数量区域，切页标签，邮件列表，邮件内容显示区域，一键领取按钮，玩家拥有金币钻石显示，提示信息，关闭按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件将在领取附件后自动删除</t>
+  </si>
+  <si>
+    <t>位于界面最下方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表处显示提示信息“别找了，啥都没有…”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件收取规则-无邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看一键收取确认提示窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱中有多封邮件，点击一键收取按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出一键收取确认提示窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见：一键收取规则-无邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示窗样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用UI的提示窗口</t>
+  </si>
+  <si>
+    <t>确认收取所有邮件吗？
+*若金币/钻石达到上限，收取将无法继续获得</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击相关查看，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行一键收取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前切页邮件进行收取操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮后，查看一键收取情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件自动删除，触发邮件删除动画</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件自动删除，触发邮件删除动画</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件自动删除动画</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看邮件自动删除动画</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>被删除的邮件直接消失，下方邮件自动向上提</t>
+  </si>
+  <si>
+    <t>邮件自动删除后，查看下方邮件变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变为选中状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据策划需求变更，修改用例
+1.ui布局变更
+2.添加一键收取提示窗
+3.添加自动删除动画</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2531,7 +2660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2739,6 +2868,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2746,7 +2881,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="28">
     <dxf>
       <font>
         <b/>
@@ -2943,174 +3078,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3128,53 +3095,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1073150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>55886</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>174036</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17932400" y="3930650"/>
-          <a:ext cx="10114286" cy="4530136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1818964</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>117410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3185,7 +3114,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3206,13 +3135,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>336031</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>47481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3223,7 +3152,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3244,13 +3173,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533052</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>76014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3261,7 +3190,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3282,18 +3211,56 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1479550</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2196910</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>34833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="10554454"/>
+          <a:ext cx="717360" cy="345229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>270212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>271595</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3306,12 +3273,59 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10725150" y="10554454"/>
-          <a:ext cx="717360" cy="345229"/>
+          <a:off x="15055850" y="3216612"/>
+          <a:ext cx="7193095" cy="3520025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26229</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>2685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14490700" y="36283900"/>
+          <a:ext cx="2636079" cy="1653685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3582,10 +3596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B22:F25"/>
+  <dimension ref="B22:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3619,13 +3633,13 @@
         <v>42265</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F23" s="14">
         <v>3851</v>
@@ -3636,14 +3650,14 @@
         <v>42268</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="51" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
@@ -3651,15 +3665,67 @@
         <v>42296</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="18">
         <v>4459</v>
       </c>
+    </row>
+    <row r="26" spans="2:6" ht="58" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>42343</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>588</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F26" s="18">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3669,13 +3735,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K240"/>
+  <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D198" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F220" sqref="F220"/>
+      <selection pane="bottomRight" activeCell="F242" sqref="F242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -3739,7 +3805,7 @@
     </row>
     <row r="3" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3770,7 +3836,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="1"/>
@@ -3809,7 +3875,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -3827,7 +3893,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -3845,7 +3911,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="48"/>
@@ -3858,7 +3924,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3866,13 +3932,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.25">
@@ -3889,7 +3955,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3900,7 +3966,7 @@
         <v>36</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3911,7 +3977,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.25">
@@ -3925,19 +3991,19 @@
         <v>40</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="44"/>
     </row>
-    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>27</v>
       </c>
@@ -3950,14 +4016,14 @@
       <c r="E17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>88</v>
+      <c r="G17" s="76" t="s">
+        <v>555</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -3965,10 +4031,10 @@
         <v>44</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -3982,7 +4048,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -3996,7 +4062,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -4007,7 +4073,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -4018,7 +4084,7 @@
         <v>52</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -4029,7 +4095,7 @@
         <v>52</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -4040,7 +4106,7 @@
         <v>53</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -4051,7 +4117,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -4062,7 +4128,7 @@
         <v>56</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -4073,7 +4139,7 @@
         <v>58</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I27" s="22">
         <v>673</v>
@@ -4087,7 +4153,7 @@
         <v>60</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -4101,7 +4167,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -4111,14 +4177,14 @@
       <c r="E30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>95</v>
+      <c r="F30" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>561</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I30" s="22">
         <v>662</v>
@@ -4126,13 +4192,13 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F31" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -4140,27 +4206,27 @@
         <v>6</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F33" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -4168,194 +4234,195 @@
         <v>7</v>
       </c>
       <c r="E34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="H34" s="38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F35" s="76" t="s">
+        <v>553</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>554</v>
+      </c>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="38">
+        <v>8</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="38">
-        <v>8</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="22">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="38">
+        <v>9</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="22">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="38">
-        <v>9</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="I38" s="22">
-        <v>675</v>
+      <c r="H38" s="50" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F39" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
+      </c>
+      <c r="I39" s="22">
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F40" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="H40" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F41" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I41" s="22">
+      <c r="H42" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I42" s="22">
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="38">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="38">
         <v>10</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="22" t="s">
-        <v>107</v>
+      <c r="E43" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F44" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F45" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F46" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F47" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="38">
+        <v>11</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G48" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H46" s="38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="38">
-        <v>11</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="I47" s="22">
+      <c r="H48" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="I48" s="22">
         <v>679</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F48" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
@@ -4363,1259 +4430,1243 @@
         <v>115</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F50" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="H51" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="38">
+        <v>12</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="38">
-        <v>12</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="G52" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="53" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F52" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D53" s="38">
+      <c r="H53" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D54" s="38">
         <v>13</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E54" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="38">
+        <v>14</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="38">
-        <v>14</v>
-      </c>
-      <c r="E54" s="23" t="s">
+      <c r="G55" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="H55" s="38" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F56" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I56" s="22">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I57" s="22">
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="38">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="38">
         <v>15</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E58" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F58" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="H58" s="38" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F59" s="22" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D60" s="38">
-        <v>16</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>139</v>
+      <c r="F60" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="I60" s="22">
-        <v>679</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>419</v>
+        <v>422</v>
+      </c>
+      <c r="I61" s="22">
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D62" s="38">
+        <v>17</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="38">
         <v>18</v>
       </c>
-      <c r="E62" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" s="22" t="s">
+      <c r="E63" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G62" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F63" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="H63" s="50" t="s">
-        <v>439</v>
+        <v>141</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F64" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G64" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="22" t="s">
+      <c r="G66" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H66" s="53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="38">
+        <v>19</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="38">
+        <v>20</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G65" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="H65" s="53" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="38">
-        <v>19</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="38">
-        <v>20</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="22" t="s">
+      <c r="H68" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G69" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="H67" s="38" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="22" t="s">
+      <c r="H69" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G70" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E71" s="63"/>
+      <c r="F71" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="H71" s="65" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="38">
+        <v>21</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74" s="38">
+        <v>22</v>
+      </c>
+      <c r="E74" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="H68" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F69" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H69" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E70" s="63"/>
-      <c r="F70" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="G70" s="64" t="s">
-        <v>252</v>
-      </c>
-      <c r="H70" s="65" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F71" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H71" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="38">
-        <v>21</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H72" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="38">
-        <v>22</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="H73" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="38">
+      <c r="G74" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="38">
         <v>23</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E75" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="74">
+        <v>24</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="74">
+        <v>25</v>
+      </c>
+      <c r="E77" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="F77" s="76" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="H77" s="38"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D78" s="74"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="76" t="s">
+        <v>558</v>
+      </c>
+      <c r="G78" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="H78" s="38"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="38">
+        <v>26</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G74" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="H74" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="38">
-        <v>24</v>
-      </c>
-      <c r="E75" s="23" t="s">
+      <c r="G79" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="38">
+        <v>27</v>
+      </c>
+      <c r="E80" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G80" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="H75" s="38" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="38">
-        <v>25</v>
-      </c>
-      <c r="E76" s="23" t="s">
+      <c r="H80" s="38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B82" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="C82" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="38">
+        <v>1</v>
+      </c>
+      <c r="E82" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H76" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H77" s="38"/>
-    </row>
-    <row r="78" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B78" s="38" t="s">
+      <c r="F82" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="G82" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D84" s="38">
+        <v>2</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B87" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="38">
+      <c r="C87" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="38">
         <v>1</v>
       </c>
-      <c r="E78" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H78" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F79" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D80" s="38">
-        <v>2</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H80" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F81" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="38"/>
-    </row>
-    <row r="83" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B83" s="38" t="s">
+      <c r="E87" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G87" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" s="38">
+      <c r="H87" s="38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F88" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F89" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="38"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="38">
         <v>1</v>
       </c>
-      <c r="E83" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F83" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H83" s="38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F84" s="22" t="s">
+      <c r="E93" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="G84" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H84" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F85" s="22" t="s">
+      <c r="F93" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="G85" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H85" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F86" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H86" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F87" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="38"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" s="38">
-        <v>1</v>
-      </c>
-      <c r="E89" s="23" t="s">
+      <c r="G93" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="H93" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="C94" s="22"/>
+      <c r="F94" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="G94" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="H94" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F95" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="G95" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H89" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="C90" s="22"/>
-      <c r="F90" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="H90" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F91" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H91" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H92" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D93" s="38">
-        <v>2</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G93" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H93" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="38"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" s="38">
-        <v>1</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>204</v>
-      </c>
       <c r="H95" s="38" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F96" s="22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H96" s="38" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F97" s="22" t="s">
-        <v>206</v>
+      <c r="D97" s="38">
+        <v>2</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="H97" s="38" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F98" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H98" s="38" t="s">
-        <v>438</v>
-      </c>
+      <c r="H98" s="38"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F99" s="22" t="s">
-        <v>208</v>
+      <c r="B99" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="38">
+        <v>1</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H99" s="38" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F100" s="22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H100" s="38" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F101" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F102" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F103" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="G102" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D103" s="38">
-        <v>2</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="H103" s="38" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F104" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F105" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F106" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D107" s="38">
+        <v>2</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F108" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H108" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D109" s="38">
+        <v>3</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I109" s="22">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H110" s="38"/>
+    </row>
+    <row r="111" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B111" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="D111" s="38">
+        <v>1</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G111" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="H104" s="38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D105" s="38">
+      <c r="H111" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="38"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="38">
+        <v>1</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F114" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H114" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="I114" s="22">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F115" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H115" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F116" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="H116" s="53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F117" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H117" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D118" s="38">
+        <v>2</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H118" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F119" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H119" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F120" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H120" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="38">
         <v>3</v>
       </c>
-      <c r="E105" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I105" s="22">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="38"/>
-    </row>
-    <row r="107" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B107" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="D107" s="38">
+      <c r="E121" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H121" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F122" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="H122" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="22"/>
+      <c r="F123" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H123" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D124" s="38">
+        <v>4</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F125" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H125" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F126" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H126" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="22"/>
+      <c r="D127" s="38">
+        <v>5</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F128" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="H128" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C129" s="22"/>
+      <c r="F129" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H129" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="38"/>
+    </row>
+    <row r="131" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B131" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" s="38">
         <v>1</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H107" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="38"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" s="38">
-        <v>1</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="H109" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F110" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="H110" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="I110" s="22">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F111" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="H111" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F112" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H112" s="53" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F113" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="H113" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D114" s="38">
+      <c r="E131" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H131" s="53" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D132" s="38">
         <v>2</v>
       </c>
-      <c r="E114" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H114" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F115" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="H115" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F116" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H116" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D117" s="38">
-        <v>3</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F117" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H117" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F118" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="H118" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C119" s="22"/>
-      <c r="F119" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="H119" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D120" s="38">
-        <v>4</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G120" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="H120" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F121" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H121" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F122" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="H122" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="22"/>
-      <c r="D123" s="38">
-        <v>5</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F123" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="H123" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F124" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H124" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="22"/>
-      <c r="F125" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="H125" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H126" s="38"/>
-    </row>
-    <row r="127" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B127" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D127" s="38">
-        <v>1</v>
-      </c>
-      <c r="E127" s="23" t="s">
+      <c r="E132" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="G127" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H127" s="53" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D128" s="38">
-        <v>2</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F128" s="22" t="s">
+      <c r="G132" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H132" s="53" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G128" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="H128" s="53" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F129" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="H129" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F130" s="22" t="s">
+      <c r="G133" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="G130" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H130" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F131" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="H131" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F132" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H132" s="53" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D133" s="38">
-        <v>3</v>
-      </c>
-      <c r="E133" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="H133" s="50" t="s">
-        <v>415</v>
+      <c r="H133" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F134" s="22" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="H134" s="50" t="s">
-        <v>420</v>
+        <v>261</v>
+      </c>
+      <c r="H134" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F135" s="22" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="H135" s="38" t="s">
-        <v>419</v>
+        <v>254</v>
+      </c>
+      <c r="H135" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F136" s="22" t="s">
-        <v>227</v>
+        <v>462</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="H136" s="38" t="s">
-        <v>419</v>
+        <v>463</v>
+      </c>
+      <c r="H136" s="53" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D137" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="H137" s="53" t="s">
-        <v>404</v>
+        <v>278</v>
+      </c>
+      <c r="H137" s="50" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F138" s="22" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H138" s="38" t="s">
-        <v>419</v>
+        <v>278</v>
+      </c>
+      <c r="H138" s="50" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F139" s="22" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H139" s="38" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F140" s="22" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G140" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H140" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D141" s="38">
+        <v>4</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H141" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F142" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H142" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F143" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H143" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F144" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H144" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="38"/>
+    </row>
+    <row r="146" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B146" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146" s="66">
+        <v>1</v>
+      </c>
+      <c r="E146" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F146" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="H140" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H141" s="38"/>
-    </row>
-    <row r="142" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B142" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="D142" s="66">
-        <v>1</v>
-      </c>
-      <c r="E142" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="F142" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="G142" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="H142" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="G143" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="H143" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="G144" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="H144" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B145" s="66"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="66"/>
-      <c r="E145" s="63"/>
-      <c r="F145" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="G145" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="H145" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B146" s="66"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66">
-        <v>2</v>
-      </c>
-      <c r="E146" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="F146" s="64"/>
       <c r="G146" s="64" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="H146" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B147" s="66"/>
       <c r="C147" s="66"/>
-      <c r="D147" s="66">
-        <v>3</v>
-      </c>
-      <c r="E147" s="63" t="s">
-        <v>284</v>
-      </c>
+      <c r="D147" s="66"/>
+      <c r="E147" s="63"/>
       <c r="F147" s="64" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G147" s="64" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H147" s="49" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -5624,62 +5675,64 @@
       <c r="D148" s="66"/>
       <c r="E148" s="63"/>
       <c r="F148" s="64" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G148" s="64" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H148" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B149" s="66"/>
       <c r="C149" s="66"/>
       <c r="D149" s="66"/>
       <c r="E149" s="63"/>
       <c r="F149" s="64" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G149" s="64" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H149" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B150" s="66"/>
       <c r="C150" s="66"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="63"/>
-      <c r="F150" s="64" t="s">
-        <v>261</v>
-      </c>
+      <c r="D150" s="66">
+        <v>2</v>
+      </c>
+      <c r="E150" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" s="64"/>
       <c r="G150" s="64" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H150" s="49" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="66"/>
-      <c r="C151" s="64"/>
+      <c r="C151" s="66"/>
       <c r="D151" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151" s="63" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F151" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G151" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H151" s="49" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -5688,13 +5741,13 @@
       <c r="D152" s="66"/>
       <c r="E152" s="63"/>
       <c r="F152" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G152" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -5703,13 +5756,13 @@
       <c r="D153" s="66"/>
       <c r="E153" s="63"/>
       <c r="F153" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G153" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H153" s="49" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -5718,1113 +5771,1293 @@
       <c r="D154" s="66"/>
       <c r="E154" s="63"/>
       <c r="F154" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G154" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H154" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="66"/>
-      <c r="C155" s="66"/>
+      <c r="C155" s="64"/>
       <c r="D155" s="66">
+        <v>4</v>
+      </c>
+      <c r="E155" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F155" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="G155" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H155" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="66"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="G156" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H156" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="66"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="G157" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H157" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="66"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H158" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B159" s="66"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66">
         <v>5</v>
       </c>
-      <c r="E155" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="H155" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H156" s="38"/>
-    </row>
-    <row r="157" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B157" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C157" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="D157" s="38">
-        <v>1</v>
-      </c>
-      <c r="E157" s="62" t="s">
-        <v>534</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="H157" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F158" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="H158" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F159" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="H159" s="38" t="s">
-        <v>419</v>
+      <c r="E159" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="H159" s="49" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H160" s="38"/>
     </row>
-    <row r="161" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="C161" s="38" t="s">
-        <v>544</v>
+    <row r="161" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B161" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="67" t="s">
+        <v>269</v>
       </c>
       <c r="D161" s="38">
         <v>1</v>
       </c>
       <c r="E161" s="62" t="s">
-        <v>545</v>
+        <v>527</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>534</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="H161" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="38">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F162" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F163" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="H163" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="38"/>
+    </row>
+    <row r="165" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="C165" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="D165" s="38">
+        <v>1</v>
+      </c>
+      <c r="E165" s="62" t="s">
+        <v>538</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D166" s="38">
         <v>2</v>
       </c>
-      <c r="E162" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="H162" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H163" s="38"/>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="38" t="s">
+      <c r="E166" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="H166" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="38"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D168" s="74">
+        <v>1</v>
+      </c>
+      <c r="E168" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="F168" s="76" t="s">
+        <v>562</v>
+      </c>
+      <c r="G168" s="76" t="s">
+        <v>567</v>
+      </c>
+      <c r="H168" s="38"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D169" s="74"/>
+      <c r="E169" s="75"/>
+      <c r="F169" s="76" t="s">
+        <v>563</v>
+      </c>
+      <c r="G169" s="76" t="s">
+        <v>568</v>
+      </c>
+      <c r="H169" s="38"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D170" s="74">
+        <v>2</v>
+      </c>
+      <c r="E170" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="F170" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G170" s="76" t="s">
+        <v>571</v>
+      </c>
+      <c r="H170" s="38"/>
+    </row>
+    <row r="171" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="D171" s="74"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="G171" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="H171" s="38"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D172" s="74">
+        <v>3</v>
+      </c>
+      <c r="E172" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="F172" s="76" t="s">
+        <v>574</v>
+      </c>
+      <c r="G172" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="H172" s="38"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D173" s="74"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="G173" s="76" t="s">
+        <v>577</v>
+      </c>
+      <c r="H173" s="38"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D174" s="74"/>
+      <c r="E174" s="75"/>
+      <c r="F174" s="76"/>
+      <c r="G174" s="76"/>
+      <c r="H174" s="38"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D175" s="74">
+        <v>4</v>
+      </c>
+      <c r="E175" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="F175" s="76"/>
+      <c r="G175" s="76" t="s">
+        <v>578</v>
+      </c>
+      <c r="H175" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F176" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="H176" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F177" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H177" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F178" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G178" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C164" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D164" s="38">
-        <v>1</v>
-      </c>
-      <c r="E164" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="G164" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="H164" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F165" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="G165" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="H165" s="38" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F166" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="G166" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="H166" s="38" t="s">
+      <c r="H178" s="38" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F167" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="G167" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="H167" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="38">
-        <v>2</v>
-      </c>
-      <c r="E168" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="G168" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="H168" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F169" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="H169" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F170" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="H170" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F171" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H171" s="38" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F172" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G172" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H172" s="38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="38">
-        <v>3</v>
-      </c>
-      <c r="E173" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="F173" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="G173" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="H173" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F174" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="G174" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="H174" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F175" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G175" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="H175" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="38">
-        <v>4</v>
-      </c>
-      <c r="E176" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="F176" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="H176" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F177" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="H177" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I177" s="22">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F178" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="H178" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D179" s="38">
         <v>5</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="F179" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G179" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F180" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="G180" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H180" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F181" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G181" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="H181" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F182" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="H182" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F183" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G183" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="H183" s="38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D184" s="38">
+        <v>6</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F184" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G184" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H184" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F185" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="H185" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F186" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G186" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="H186" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D187" s="38">
+        <v>7</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F187" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G187" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="H187" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F188" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G188" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="H188" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I188" s="22">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F189" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G189" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H189" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D190" s="38">
+        <v>8</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F190" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G190" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="H190" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F191" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G191" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="H191" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H192" s="38"/>
+    </row>
+    <row r="193" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B193" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="D193" s="38">
+        <v>1</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="G193" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H193" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F194" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G194" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H194" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D195" s="73"/>
+      <c r="F195" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="G195" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H195" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D196" s="73">
+        <v>2</v>
+      </c>
+      <c r="E196" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="F196" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="G196" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="H196" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D197" s="73"/>
+      <c r="E197" s="68"/>
+      <c r="F197" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G197" s="69" t="s">
+        <v>542</v>
+      </c>
+      <c r="H197" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D198" s="73"/>
+      <c r="F198" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="G198" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="H198" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D199" s="71">
+        <v>3</v>
+      </c>
+      <c r="E199" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="F199" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G199" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="H199" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D200" s="71"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G200" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="H200" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D201" s="71"/>
+      <c r="E201" s="72"/>
+      <c r="F201" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G201" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="H201" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D202" s="71"/>
+      <c r="E202" s="72"/>
+      <c r="F202" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G202" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="H202" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D203" s="73">
+        <v>4</v>
+      </c>
+      <c r="E203" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="G179" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="H179" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F180" s="22" t="s">
+      <c r="F203" s="69"/>
+      <c r="G203" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="G180" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="H180" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="38"/>
-    </row>
-    <row r="182" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B182" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="D182" s="38">
+      <c r="H203" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G204" s="40"/>
+      <c r="H204" s="38"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="D205" s="38">
         <v>1</v>
       </c>
-      <c r="E182" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F182" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="G182" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="H182" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F183" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="G183" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="H183" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D184" s="73"/>
-      <c r="F184" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="G184" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="H184" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D185" s="73">
-        <v>2</v>
-      </c>
-      <c r="E185" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="F185" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="G185" s="69" t="s">
+      <c r="E205" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G205" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="H185" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D186" s="73"/>
-      <c r="E186" s="68"/>
-      <c r="F186" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="G186" s="69" t="s">
-        <v>549</v>
-      </c>
-      <c r="H186" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D187" s="73"/>
-      <c r="F187" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="G187" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="H187" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D188" s="71">
-        <v>3</v>
-      </c>
-      <c r="E188" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="F188" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="G188" s="70" t="s">
-        <v>393</v>
-      </c>
-      <c r="H188" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D189" s="71"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="70" t="s">
-        <v>379</v>
-      </c>
-      <c r="G189" s="70" t="s">
-        <v>394</v>
-      </c>
-      <c r="H189" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D190" s="71"/>
-      <c r="E190" s="72"/>
-      <c r="F190" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="G190" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="H190" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D191" s="71"/>
-      <c r="E191" s="72"/>
-      <c r="F191" s="70" t="s">
-        <v>379</v>
-      </c>
-      <c r="G191" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="H191" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D192" s="73">
-        <v>4</v>
-      </c>
-      <c r="E192" s="68" t="s">
-        <v>397</v>
-      </c>
-      <c r="F192" s="69"/>
-      <c r="G192" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="H192" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G193" s="40"/>
-      <c r="H193" s="38"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B194" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="C194" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D194" s="38">
+      <c r="H205" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="38"/>
+    </row>
+    <row r="207" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B207" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C207" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="D207" s="38">
         <v>1</v>
       </c>
-      <c r="E194" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="G194" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="H194" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H195" s="38"/>
-    </row>
-    <row r="196" spans="2:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="B196" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="C196" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="D196" s="38">
-        <v>1</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="G196" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="H196" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I196" s="22">
+      <c r="E207" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G207" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="H207" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I207" s="22">
         <v>683</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H197" s="38"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B198" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C198" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D198" s="38">
-        <v>1</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F198" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G198" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="H198" s="38" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F199" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G199" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="H199" s="38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F200" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G200" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="H200" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F201" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G201" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H201" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D202" s="38">
-        <v>2</v>
-      </c>
-      <c r="E202" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F202" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G202" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="H202" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F203" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G203" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H203" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="I203" s="22">
-        <v>674</v>
-      </c>
-      <c r="J203" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F204" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="G204" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="H204" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I204" s="22">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D205" s="38">
-        <v>3</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F205" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G205" s="22" t="s">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H208" s="38"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C209" s="38" t="s">
         <v>304</v>
-      </c>
-      <c r="H205" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F206" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G206" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="H206" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F207" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="G207" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="H207" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="I207" s="22">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H208" s="38"/>
-    </row>
-    <row r="209" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B209" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C209" s="38" t="s">
-        <v>307</v>
       </c>
       <c r="D209" s="38">
         <v>1</v>
       </c>
       <c r="E209" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H209" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F210" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H210" s="38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F211" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H211" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F212" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="H212" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D213" s="38">
+        <v>2</v>
+      </c>
+      <c r="E213" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G213" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H213" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F214" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G214" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="H214" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="I214" s="22">
+        <v>674</v>
+      </c>
+      <c r="J214" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F215" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G215" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H215" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I215" s="22">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D216" s="38">
+        <v>3</v>
+      </c>
+      <c r="E216" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G216" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="H216" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F217" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G217" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H217" s="38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F218" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H218" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I218" s="22">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H219" s="38"/>
+    </row>
+    <row r="220" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="B220" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D220" s="38">
+        <v>1</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F220" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G220" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F209" s="22" t="s">
+      <c r="H220" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F221" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="G209" s="22" t="s">
+      <c r="G221" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="H209" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F210" s="22" t="s">
+      <c r="H221" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D222" s="38">
+        <v>2</v>
+      </c>
+      <c r="E222" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="G210" s="22" t="s">
+      <c r="F222" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G222" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="H210" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D211" s="38">
+      <c r="H222" s="38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F223" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G223" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="H223" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F224" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G224" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H224" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H225" s="38"/>
+    </row>
+    <row r="226" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B226" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C226" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D226" s="38">
+        <v>1</v>
+      </c>
+      <c r="E226" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F226" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G226" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H226" s="50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F227" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G227" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H227" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="I227" s="22">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D228" s="50">
         <v>2</v>
       </c>
-      <c r="E211" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="F211" s="22" t="s">
+      <c r="E228" s="77" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G228" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H228" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D229" s="50"/>
+      <c r="E229" s="77"/>
+      <c r="F229" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G229" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H229" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="G230" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H230" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="50">
+        <v>3</v>
+      </c>
+      <c r="E231" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="F231" s="40"/>
+      <c r="G231" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="H231" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="I231" s="22">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="G232" s="40"/>
+    </row>
+    <row r="233" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B233" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G211" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="H211" s="38" t="s">
+      <c r="C233" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D233" s="38">
+        <v>1</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F233" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G233" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H233" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F234" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G234" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="H234" s="38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F235" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="G235" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H235" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D236" s="38">
+        <v>2</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F236" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H236" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F237" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G237" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H237" s="38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F238" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="G238" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="H238" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F239" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="G239" s="76" t="s">
+        <v>581</v>
+      </c>
+      <c r="H239" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F240" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G240" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H240" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F241" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G241" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H241" s="38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F242" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G242" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H242" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F243" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G243" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H243" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F244" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G244" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H244" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D245" s="38">
+        <v>3</v>
+      </c>
+      <c r="E245" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G245" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="H245" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="38"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="C247" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="D247" s="38">
+        <v>1</v>
+      </c>
+      <c r="E247" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="F247" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G247" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H247" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F248" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="G248" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H248" s="38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D249" s="38">
+        <v>2</v>
+      </c>
+      <c r="E249" s="23" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F212" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G212" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="H212" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F213" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G213" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="H213" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H214" s="38"/>
-    </row>
-    <row r="215" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B215" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="C215" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="D215" s="38">
+      <c r="G249" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H249" s="38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="38"/>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="74" t="s">
+        <v>582</v>
+      </c>
+      <c r="C251" s="74" t="s">
+        <v>583</v>
+      </c>
+      <c r="D251" s="74">
         <v>1</v>
       </c>
-      <c r="E215" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F215" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G215" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="H215" s="50" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F216" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="G216" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="H216" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="I216" s="22">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D217" s="74">
+      <c r="E251" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="F251" s="76"/>
+      <c r="G251" s="76" t="s">
+        <v>585</v>
+      </c>
+      <c r="H251" s="38"/>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="74"/>
+      <c r="C252" s="74"/>
+      <c r="D252" s="74">
         <v>2</v>
       </c>
-      <c r="E217" s="75" t="s">
-        <v>551</v>
-      </c>
-      <c r="F217" s="76" t="s">
-        <v>320</v>
-      </c>
-      <c r="G217" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="H217" s="53" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D218" s="74"/>
-      <c r="E218" s="75"/>
-      <c r="F218" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="G218" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="H218" s="53" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="74"/>
-      <c r="E219" s="75"/>
-      <c r="F219" s="76" t="s">
-        <v>553</v>
-      </c>
-      <c r="G219" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="H219" s="53" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="74">
-        <v>3</v>
-      </c>
-      <c r="E220" s="75" t="s">
-        <v>554</v>
-      </c>
-      <c r="F220" s="76"/>
-      <c r="G220" s="76" t="s">
-        <v>555</v>
-      </c>
-      <c r="H220" s="53" t="s">
-        <v>556</v>
-      </c>
-      <c r="I220" s="22">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="G221" s="40"/>
-    </row>
-    <row r="222" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B222" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C222" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="D222" s="38">
-        <v>1</v>
-      </c>
-      <c r="E222" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F222" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="G222" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H222" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F223" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G223" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="H223" s="38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F224" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G224" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H224" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D225" s="38">
-        <v>2</v>
-      </c>
-      <c r="E225" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="F225" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="G225" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H225" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F226" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="G226" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H226" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F227" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G227" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="H227" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F228" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="G228" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="H228" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F229" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="G229" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="H229" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F230" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="G230" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="H230" s="38" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F231" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G231" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="H231" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F232" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="G232" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="H232" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F233" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="G233" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="H233" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D234" s="38">
-        <v>3</v>
-      </c>
-      <c r="E234" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G234" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="H234" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H235" s="38"/>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B236" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C236" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="D236" s="38">
-        <v>1</v>
-      </c>
-      <c r="E236" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="F236" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="G236" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H236" s="38" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F237" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="G237" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H237" s="38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D238" s="38">
-        <v>2</v>
-      </c>
-      <c r="E238" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="G238" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="H238" s="38" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H239" s="38"/>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H240" s="38"/>
+      <c r="E252" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="F252" s="76"/>
+      <c r="G252" s="76" t="s">
+        <v>587</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H222:H235 H17:H220">
+  <conditionalFormatting sqref="H233:H246 H17:H231">
     <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H222:H235 H17:H220">
+  <conditionalFormatting sqref="H233:H246 H17:H231">
     <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -6832,9 +7065,9 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J111 J128">
+  <conditionalFormatting sqref="J115 J132">
     <cfRule type="notContainsBlanks" dxfId="21" priority="14">
-      <formula>LEN(TRIM(J111))&gt;0</formula>
+      <formula>LEN(TRIM(J115))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
@@ -6850,12 +7083,12 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H236:H240">
+  <conditionalFormatting sqref="H247:H251">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H236:H240">
+  <conditionalFormatting sqref="H247:H251">
     <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -6881,12 +7114,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7188,158 +7421,158 @@
   <sheetData>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="54" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="G2" s="54" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="56" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="56" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="56" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="60" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="56" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
       <c r="G8" s="55" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="58" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
       <c r="G10" s="54" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="56" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K11">
         <v>938</v>
@@ -7356,35 +7589,35 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="58" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="56" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="55" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K14">
         <v>938</v>
@@ -7392,68 +7625,68 @@
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>503</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>510</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="54" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="56" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="58" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="54" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="54" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="56" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="55" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K20">
         <v>950</v>
@@ -7461,35 +7694,35 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="56" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="59" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J22" s="38"/>
     </row>
@@ -7499,13 +7732,13 @@
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="55" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="J23" s="38"/>
     </row>

--- a/qa/01.测试用例/交互系统/邮箱系统设计/邮箱系统测试用例.xlsx
+++ b/qa/01.测试用例/交互系统/邮箱系统设计/邮箱系统测试用例.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="619">
   <si>
     <t>更新日期</t>
   </si>
@@ -2267,11 +2267,6 @@
   </si>
   <si>
     <t>通用UI的提示窗口</t>
-  </si>
-  <si>
-    <t>确认收取所有邮件吗？
-*若金币/钻石达到上限，收取将无法继续获得</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点击相关查看，查看触发情况</t>
@@ -2337,6 +2332,127 @@
 1.ui布局变更
 2.添加一键收取提示窗
 3.添加自动删除动画</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>别找了，啥都没有…</t>
+  </si>
+  <si>
+    <t>mail_shouquall</t>
+  </si>
+  <si>
+    <t>mail_coinmanle</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收取所有邮件吗？</t>
+  </si>
+  <si>
+    <t>*若金币/钻石达到上限，收取将无法继续获得</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_zidongshantips</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬说先不做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件为活力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为活力图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活力图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与配置活力数值显示一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件中有活力100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获得活力100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一封邮件的附件中有活力，玩家活力数量与附件活力之和超过活力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件中有活力，玩家活力数量与附件活力之和超过活力上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取成功，多余活力作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收取所有邮件吗？
+*若金币/钻石/活力达到上限，收取将无法继续获得</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_empty</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm collect all mails?</t>
+  </si>
+  <si>
+    <t>* If Coin/Diamond limit is reached, any exceeding amount will not be collected.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mails are automatically deleted after attachments are collected.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nothing to see here…</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2660,7 +2776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2874,6 +2990,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2881,7 +3000,154 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3057,27 +3323,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3173,13 +3418,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533052</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>76014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3286,15 +3531,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26229</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>2685</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38929</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>40785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,7 +3557,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14490700" y="36283900"/>
+          <a:off x="13893800" y="36322000"/>
           <a:ext cx="2636079" cy="1653685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3599,7 +3844,7 @@
   <dimension ref="B22:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3680,7 +3925,7 @@
         <v>42343</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>531</v>
@@ -3694,8 +3939,12 @@
     </row>
     <row r="27" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>618</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="18"/>
     </row>
@@ -3735,13 +3984,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K252"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F242" sqref="F242"/>
+      <selection pane="bottomRight" activeCell="F236" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -3874,8 +4123,8 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>398</v>
+      <c r="H6" s="38" t="s">
+        <v>397</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -3892,8 +4141,8 @@
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>398</v>
+      <c r="H7" s="38" t="s">
+        <v>397</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -3910,8 +4159,8 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>398</v>
+      <c r="H8" s="38" t="s">
+        <v>397</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="48"/>
@@ -3923,8 +4172,8 @@
       <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>398</v>
+      <c r="H9" s="38" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3937,8 +4186,8 @@
       <c r="G10" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>398</v>
+      <c r="H10" s="38" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.25">
@@ -3954,8 +4203,8 @@
       <c r="G11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="49" t="s">
-        <v>398</v>
+      <c r="H11" s="38" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3965,8 +4214,8 @@
       <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="49" t="s">
-        <v>398</v>
+      <c r="H12" s="38" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3976,8 +4225,8 @@
       <c r="G13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>398</v>
+      <c r="H13" s="38" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.25">
@@ -3990,8 +4239,8 @@
       <c r="G14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>398</v>
+      <c r="H14" s="38" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -4253,7 +4502,9 @@
       <c r="G35" s="76" t="s">
         <v>554</v>
       </c>
-      <c r="H35" s="38"/>
+      <c r="H35" s="38" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="38">
@@ -4785,7 +5036,9 @@
       <c r="G76" s="76" t="s">
         <v>551</v>
       </c>
-      <c r="H76" s="38"/>
+      <c r="H76" s="38" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D77" s="74">
@@ -4800,7 +5053,9 @@
       <c r="G77" s="76" t="s">
         <v>560</v>
       </c>
-      <c r="H77" s="38"/>
+      <c r="H77" s="38" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" s="74"/>
@@ -4811,7 +5066,9 @@
       <c r="G78" s="76" t="s">
         <v>559</v>
       </c>
-      <c r="H78" s="38"/>
+      <c r="H78" s="38" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D79" s="38">
@@ -5286,28 +5543,26 @@
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D118" s="38">
+      <c r="F118" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G118" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="H118" s="53"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D119" s="38">
         <v>2</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E119" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F119" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="G118" s="22" t="s">
+      <c r="G119" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="H118" s="53" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F119" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="H119" s="53" t="s">
         <v>397</v>
@@ -5315,78 +5570,78 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F120" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H120" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D121" s="38">
-        <v>3</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>237</v>
-      </c>
       <c r="F121" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H121" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="38">
+        <v>3</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="F122" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H122" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="22"/>
       <c r="F123" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H123" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D124" s="38">
-        <v>4</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>238</v>
-      </c>
+      <c r="C124" s="22"/>
       <c r="F124" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H124" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D125" s="38">
+        <v>4</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>238</v>
+      </c>
       <c r="F125" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H125" s="53" t="s">
         <v>397</v>
@@ -5394,372 +5649,340 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F126" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H126" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="22"/>
-      <c r="D127" s="38">
-        <v>5</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>239</v>
-      </c>
       <c r="F127" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H127" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="22"/>
+      <c r="D128" s="38">
+        <v>5</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>239</v>
+      </c>
       <c r="F128" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H128" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C129" s="22"/>
       <c r="F129" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H129" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H130" s="38"/>
-    </row>
-    <row r="131" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B131" s="38" t="s">
+      <c r="C130" s="22"/>
+      <c r="F130" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H130" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C131" s="22"/>
+      <c r="D131" s="74">
+        <v>6</v>
+      </c>
+      <c r="E131" s="75" t="s">
+        <v>604</v>
+      </c>
+      <c r="F131" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="G131" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="H131" s="53"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C132" s="22"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="G132" s="76" t="s">
+        <v>605</v>
+      </c>
+      <c r="H132" s="53"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="22"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="G133" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="H133" s="53"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C134" s="22"/>
+      <c r="H134" s="53"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="38"/>
+    </row>
+    <row r="136" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B136" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C136" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="38">
+      <c r="D136" s="38">
         <v>1</v>
       </c>
-      <c r="E131" s="23" t="s">
+      <c r="E136" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G136" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="H131" s="53" t="s">
+      <c r="H136" s="53" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="38">
-        <v>2</v>
-      </c>
-      <c r="E132" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F132" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="H132" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F133" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="H133" s="53" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F134" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="G134" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="H134" s="53" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F135" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="H135" s="53" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F136" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="H136" s="53" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D137" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H137" s="50" t="s">
-        <v>408</v>
+        <v>256</v>
+      </c>
+      <c r="H137" s="53" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F138" s="22" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H138" s="50" t="s">
-        <v>413</v>
+        <v>260</v>
+      </c>
+      <c r="H138" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F139" s="22" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H139" s="38" t="s">
-        <v>412</v>
+        <v>261</v>
+      </c>
+      <c r="H139" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F140" s="22" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H140" s="38" t="s">
-        <v>412</v>
+        <v>254</v>
+      </c>
+      <c r="H140" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="38">
-        <v>4</v>
-      </c>
-      <c r="E141" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F141" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H141" s="53" t="s">
-        <v>397</v>
-      </c>
+      <c r="F141" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="G141" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="H141" s="53"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F142" s="22" t="s">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="H142" s="38" t="s">
-        <v>412</v>
+        <v>463</v>
+      </c>
+      <c r="H142" s="53" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D143" s="38">
+        <v>3</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>277</v>
+      </c>
       <c r="F143" s="22" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="H143" s="38" t="s">
-        <v>412</v>
+        <v>278</v>
+      </c>
+      <c r="H143" s="50" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F144" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H144" s="50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F145" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H145" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F146" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H146" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D147" s="38">
+        <v>4</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H147" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F148" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H148" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F149" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F150" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G144" s="22" t="s">
+      <c r="G150" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H144" s="38" t="s">
+      <c r="H150" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H145" s="38"/>
-    </row>
-    <row r="146" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B146" s="66" t="s">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="38"/>
+    </row>
+    <row r="152" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B152" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C146" s="66" t="s">
+      <c r="C152" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="D146" s="66">
+      <c r="D152" s="66">
         <v>1</v>
       </c>
-      <c r="E146" s="63" t="s">
+      <c r="E152" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="F146" s="64" t="s">
+      <c r="F152" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="G146" s="64" t="s">
+      <c r="G152" s="64" t="s">
         <v>369</v>
-      </c>
-      <c r="H146" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B147" s="66"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="66"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="G147" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="H147" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="66"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="G148" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="H148" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B149" s="66"/>
-      <c r="C149" s="66"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="G149" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="H149" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="66">
-        <v>2</v>
-      </c>
-      <c r="E150" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="F150" s="64"/>
-      <c r="G150" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="H150" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="66"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="66">
-        <v>3</v>
-      </c>
-      <c r="E151" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="F151" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="G151" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="H151" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="66"/>
-      <c r="C152" s="66"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="G152" s="64" t="s">
-        <v>283</v>
       </c>
       <c r="H152" s="49" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B153" s="66"/>
       <c r="C153" s="66"/>
       <c r="D153" s="66"/>
       <c r="E153" s="63"/>
       <c r="F153" s="64" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G153" s="64" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H153" s="49" t="s">
         <v>417</v>
@@ -5771,44 +5994,42 @@
       <c r="D154" s="66"/>
       <c r="E154" s="63"/>
       <c r="F154" s="64" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G154" s="64" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H154" s="49" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B155" s="66"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="66">
-        <v>4</v>
-      </c>
-      <c r="E155" s="63" t="s">
-        <v>284</v>
-      </c>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="63"/>
       <c r="F155" s="64" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G155" s="64" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H155" s="49" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B156" s="66"/>
       <c r="C156" s="66"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="64" t="s">
-        <v>257</v>
-      </c>
+      <c r="D156" s="66">
+        <v>2</v>
+      </c>
+      <c r="E156" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" s="64"/>
       <c r="G156" s="64" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H156" s="49" t="s">
         <v>417</v>
@@ -5817,13 +6038,17 @@
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="66"/>
       <c r="C157" s="66"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="63"/>
+      <c r="D157" s="66">
+        <v>3</v>
+      </c>
+      <c r="E157" s="63" t="s">
+        <v>282</v>
+      </c>
       <c r="F157" s="64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G157" s="64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H157" s="49" t="s">
         <v>417</v>
@@ -5835,805 +6060,824 @@
       <c r="D158" s="66"/>
       <c r="E158" s="63"/>
       <c r="F158" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G158" s="64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H158" s="49" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="66"/>
       <c r="C159" s="66"/>
-      <c r="D159" s="66">
-        <v>5</v>
-      </c>
-      <c r="E159" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="F159" s="64"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="64" t="s">
+        <v>258</v>
+      </c>
       <c r="G159" s="64" t="s">
-        <v>392</v>
+        <v>283</v>
       </c>
       <c r="H159" s="49" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H160" s="38"/>
-    </row>
-    <row r="161" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="B161" s="67" t="s">
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G160" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="H160" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="66"/>
+      <c r="C161" s="64"/>
+      <c r="D161" s="66">
+        <v>4</v>
+      </c>
+      <c r="E161" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F161" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="G161" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H161" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="63"/>
+      <c r="F162" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="G162" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H162" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="G163" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H163" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="66"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="66"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G164" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H164" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B165" s="66"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66">
+        <v>5</v>
+      </c>
+      <c r="E165" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="F165" s="64"/>
+      <c r="G165" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="H165" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="38"/>
+    </row>
+    <row r="167" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="B167" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="67" t="s">
+      <c r="C167" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="38">
+      <c r="D167" s="38">
         <v>1</v>
       </c>
-      <c r="E161" s="62" t="s">
+      <c r="E167" s="62" t="s">
         <v>527</v>
       </c>
-      <c r="F161" s="22" t="s">
+      <c r="F167" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="G161" s="22" t="s">
+      <c r="G167" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="H161" s="38" t="s">
+      <c r="H167" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F162" s="22" t="s">
+    <row r="168" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F168" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="G162" s="22" t="s">
+      <c r="G168" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="H162" s="38" t="s">
+      <c r="H168" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="F163" s="22" t="s">
+    <row r="169" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F169" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="G163" s="22" t="s">
+      <c r="G169" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="H163" s="38" t="s">
+      <c r="H169" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H164" s="38"/>
-    </row>
-    <row r="165" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="C165" s="38" t="s">
+    <row r="170" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="F170" s="76" t="s">
+        <v>609</v>
+      </c>
+      <c r="G170" s="76" t="s">
+        <v>610</v>
+      </c>
+      <c r="H170" s="38"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="38"/>
+    </row>
+    <row r="172" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="C172" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="D165" s="38">
+      <c r="D172" s="38">
         <v>1</v>
       </c>
-      <c r="E165" s="62" t="s">
+      <c r="E172" s="62" t="s">
         <v>538</v>
       </c>
-      <c r="G165" s="22" t="s">
+      <c r="G172" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="H165" s="38" t="s">
+      <c r="H172" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="38">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D173" s="38">
         <v>2</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E173" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="G166" s="22" t="s">
+      <c r="G173" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="H166" s="38" t="s">
+      <c r="H173" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H167" s="38"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="38" t="s">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="38"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C175" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="D168" s="74">
+      <c r="D175" s="74">
         <v>1</v>
       </c>
-      <c r="E168" s="75" t="s">
+      <c r="E175" s="75" t="s">
         <v>566</v>
       </c>
-      <c r="F168" s="76" t="s">
+      <c r="F175" s="76" t="s">
         <v>562</v>
       </c>
-      <c r="G168" s="76" t="s">
+      <c r="G175" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="H168" s="38"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="74"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="76" t="s">
+      <c r="H175" s="38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D176" s="74"/>
+      <c r="E176" s="75"/>
+      <c r="F176" s="76" t="s">
         <v>563</v>
       </c>
-      <c r="G169" s="76" t="s">
+      <c r="G176" s="76" t="s">
         <v>568</v>
       </c>
-      <c r="H169" s="38"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="74">
+      <c r="H176" s="38" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D177" s="74">
         <v>2</v>
       </c>
-      <c r="E170" s="75" t="s">
+      <c r="E177" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="F170" s="76" t="s">
+      <c r="F177" s="76" t="s">
         <v>569</v>
       </c>
-      <c r="G170" s="76" t="s">
+      <c r="G177" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="H170" s="38"/>
-    </row>
-    <row r="171" spans="2:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="D171" s="74"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="76" t="s">
+      <c r="H177" s="38" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="178" spans="4:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="D178" s="74"/>
+      <c r="E178" s="75"/>
+      <c r="F178" s="76" t="s">
         <v>570</v>
       </c>
-      <c r="G171" s="76" t="s">
+      <c r="G178" s="76" t="s">
+        <v>611</v>
+      </c>
+      <c r="H178" s="38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="179" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D179" s="74">
+        <v>3</v>
+      </c>
+      <c r="E179" s="75" t="s">
         <v>572</v>
       </c>
-      <c r="H171" s="38"/>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="74">
-        <v>3</v>
-      </c>
-      <c r="E172" s="75" t="s">
+      <c r="F179" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="F172" s="76" t="s">
+      <c r="G179" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D180" s="74"/>
+      <c r="E180" s="75"/>
+      <c r="F180" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="G172" s="76" t="s">
+      <c r="G180" s="76" t="s">
         <v>576</v>
       </c>
-      <c r="H172" s="38"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="74"/>
-      <c r="E173" s="75"/>
-      <c r="F173" s="76" t="s">
-        <v>575</v>
-      </c>
-      <c r="G173" s="76" t="s">
+      <c r="H180" s="38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="181" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D181" s="74">
+        <v>4</v>
+      </c>
+      <c r="E181" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="F181" s="76"/>
+      <c r="G181" s="76" t="s">
         <v>577</v>
       </c>
-      <c r="H173" s="38"/>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="74"/>
-      <c r="E174" s="75"/>
-      <c r="F174" s="76"/>
-      <c r="G174" s="76"/>
-      <c r="H174" s="38"/>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="74">
-        <v>4</v>
-      </c>
-      <c r="E175" s="75" t="s">
-        <v>579</v>
-      </c>
-      <c r="F175" s="76"/>
-      <c r="G175" s="76" t="s">
-        <v>578</v>
-      </c>
-      <c r="H175" s="38" t="s">
+      <c r="H181" s="38" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F176" s="22" t="s">
+    <row r="182" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F182" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G182" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="H176" s="38" t="s">
+      <c r="H182" s="38" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F177" s="22" t="s">
+    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F183" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="G177" s="22" t="s">
+      <c r="G183" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="H177" s="38" t="s">
+      <c r="H183" s="38" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F178" s="22" t="s">
+    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F184" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="G178" s="22" t="s">
+      <c r="G184" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="H178" s="38" t="s">
+      <c r="H184" s="38" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D179" s="38">
+    <row r="185" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D185" s="38">
         <v>5</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E185" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="G179" s="22" t="s">
+      <c r="G185" s="22" t="s">
         <v>356</v>
-      </c>
-      <c r="H179" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F180" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="G180" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H180" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F181" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="G181" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="H181" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F182" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="G182" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="H182" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F183" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="G183" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="H183" s="38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D184" s="38">
-        <v>6</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F184" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="G184" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H184" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F185" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="G185" s="22" t="s">
-        <v>455</v>
       </c>
       <c r="H185" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F186" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="G186" s="40" t="s">
-        <v>457</v>
+        <v>354</v>
+      </c>
+      <c r="G186" s="22" t="s">
+        <v>454</v>
       </c>
       <c r="H186" s="38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D187" s="38">
-        <v>7</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>456</v>
-      </c>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F187" s="22" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="H187" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F188" s="22" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="G188" s="22" t="s">
-        <v>461</v>
+        <v>355</v>
       </c>
       <c r="H188" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="I188" s="22">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="189" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F189" s="22" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="G189" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="H189" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H189" s="38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D190" s="38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E190" s="23" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G190" s="40" t="s">
-        <v>459</v>
+        <v>358</v>
+      </c>
+      <c r="G190" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="H190" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F191" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G191" s="40" t="s">
-        <v>385</v>
+        <v>361</v>
+      </c>
+      <c r="G191" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="H191" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="38"/>
-    </row>
-    <row r="193" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B193" s="38" t="s">
+    <row r="192" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F192" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="H192" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D193" s="38">
+        <v>7</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G193" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="H193" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F194" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G194" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="H194" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I194" s="22">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F195" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G195" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H195" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D196" s="38">
+        <v>8</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G196" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="H196" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F197" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G197" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="H197" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H198" s="38"/>
+    </row>
+    <row r="199" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B199" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C199" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="D193" s="38">
+      <c r="D199" s="38">
         <v>1</v>
       </c>
-      <c r="E193" s="23" t="s">
+      <c r="E199" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="F193" s="22" t="s">
+      <c r="F199" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="G193" s="22" t="s">
+      <c r="G199" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H193" s="38" t="s">
+      <c r="H199" s="38" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="F194" s="22" t="s">
+    <row r="200" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F200" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="G194" s="22" t="s">
+      <c r="G200" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H194" s="38" t="s">
+      <c r="H200" s="38" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D195" s="73"/>
-      <c r="F195" s="22" t="s">
+    <row r="201" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D201" s="73"/>
+      <c r="F201" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G195" s="22" t="s">
+      <c r="G201" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H195" s="38" t="s">
+      <c r="H201" s="38" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D196" s="73">
+    <row r="202" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D202" s="73"/>
+      <c r="F202" s="76" t="s">
+        <v>608</v>
+      </c>
+      <c r="G202" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="H202" s="38"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D203" s="73">
         <v>2</v>
       </c>
-      <c r="E196" s="68" t="s">
+      <c r="E203" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="F196" s="69" t="s">
+      <c r="F203" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="G196" s="69" t="s">
+      <c r="G203" s="69" t="s">
         <v>374</v>
-      </c>
-      <c r="H196" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D197" s="73"/>
-      <c r="E197" s="68"/>
-      <c r="F197" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="G197" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="H197" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D198" s="73"/>
-      <c r="F198" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="G198" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="H198" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D199" s="71">
-        <v>3</v>
-      </c>
-      <c r="E199" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="F199" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="G199" s="70" t="s">
-        <v>386</v>
-      </c>
-      <c r="H199" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D200" s="71"/>
-      <c r="E200" s="72"/>
-      <c r="F200" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G200" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="H200" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D201" s="71"/>
-      <c r="E201" s="72"/>
-      <c r="F201" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="G201" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="H201" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D202" s="71"/>
-      <c r="E202" s="72"/>
-      <c r="F202" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G202" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="H202" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D203" s="73">
-        <v>4</v>
-      </c>
-      <c r="E203" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="F203" s="69"/>
-      <c r="G203" s="70" t="s">
-        <v>391</v>
       </c>
       <c r="H203" s="49" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G204" s="40"/>
-      <c r="H204" s="38"/>
+      <c r="D204" s="73"/>
+      <c r="E204" s="68"/>
+      <c r="F204" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G204" s="69" t="s">
+        <v>542</v>
+      </c>
+      <c r="H204" s="49" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="C205" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="D205" s="38">
-        <v>1</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="G205" s="22" t="s">
-        <v>380</v>
+      <c r="D205" s="73"/>
+      <c r="F205" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="G205" s="70" t="s">
+        <v>375</v>
       </c>
       <c r="H205" s="49" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="38"/>
-    </row>
-    <row r="207" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B207" s="38" t="s">
+      <c r="D206" s="71">
+        <v>3</v>
+      </c>
+      <c r="E206" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="F206" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G206" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="H206" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D207" s="71"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G207" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="H207" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D208" s="71"/>
+      <c r="E208" s="72"/>
+      <c r="F208" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G208" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="H208" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D209" s="71"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G209" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="H209" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="D210" s="73">
+        <v>4</v>
+      </c>
+      <c r="E210" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="F210" s="69"/>
+      <c r="G210" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="H210" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G211" s="40"/>
+      <c r="H211" s="38"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="D212" s="38">
+        <v>1</v>
+      </c>
+      <c r="E212" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H212" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H213" s="38"/>
+    </row>
+    <row r="214" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="B214" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="C207" s="38" t="s">
+      <c r="C214" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="D207" s="38">
+      <c r="D214" s="38">
         <v>1</v>
       </c>
-      <c r="E207" s="23" t="s">
+      <c r="E214" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G207" s="22" t="s">
+      <c r="G214" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="H207" s="38" t="s">
+      <c r="H214" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="I207" s="22">
+      <c r="I214" s="22">
         <v>683</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="38"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B209" s="38" t="s">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H215" s="38"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C209" s="38" t="s">
+      <c r="C216" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="D209" s="38">
+      <c r="D216" s="38">
         <v>1</v>
       </c>
-      <c r="E209" s="23" t="s">
+      <c r="E216" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="F209" s="22" t="s">
+      <c r="F216" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="G209" s="22" t="s">
+      <c r="G216" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="H209" s="38" t="s">
+      <c r="H216" s="38" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F210" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G210" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H210" s="38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F211" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G211" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H211" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F212" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G212" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="H212" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D213" s="38">
-        <v>2</v>
-      </c>
-      <c r="E213" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F213" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G213" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="H213" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F214" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="G214" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="H214" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="I214" s="22">
-        <v>674</v>
-      </c>
-      <c r="J214" s="22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F215" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="G215" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="H215" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="I215" s="22">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D216" s="38">
-        <v>3</v>
-      </c>
-      <c r="E216" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F216" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G216" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="H216" s="38" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F217" s="22" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G217" s="22" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H217" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F218" s="22" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H218" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="I218" s="22">
-        <v>678</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H219" s="38"/>
-    </row>
-    <row r="220" spans="2:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="B220" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="C220" s="38" t="s">
-        <v>305</v>
-      </c>
+      <c r="F219" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G219" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="H219" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D220" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F220" s="22" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H220" s="38" t="s">
         <v>412</v>
@@ -6641,38 +6885,47 @@
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F221" s="22" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G221" s="22" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H221" s="38" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="I221" s="22">
+        <v>674</v>
+      </c>
+      <c r="J221" s="22" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D222" s="38">
-        <v>2</v>
-      </c>
-      <c r="E222" s="23" t="s">
-        <v>311</v>
-      </c>
       <c r="F222" s="22" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G222" s="22" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H222" s="38" t="s">
-        <v>440</v>
+        <v>409</v>
+      </c>
+      <c r="I222" s="22">
+        <v>678</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D223" s="38">
+        <v>3</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>298</v>
+      </c>
       <c r="F223" s="22" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="G223" s="22" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>412</v>
@@ -6680,419 +6933,530 @@
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F224" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G224" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H224" s="38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F225" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G225" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H225" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I225" s="22">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H226" s="38"/>
+    </row>
+    <row r="227" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B227" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D227" s="38">
+        <v>1</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F227" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G227" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H227" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F228" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G228" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H228" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D229" s="38">
+        <v>2</v>
+      </c>
+      <c r="E229" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F229" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G229" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="H229" s="38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F230" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G230" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="H230" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F231" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G224" s="22" t="s">
+      <c r="G231" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="H224" s="38" t="s">
+      <c r="H231" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H225" s="38"/>
-    </row>
-    <row r="226" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B226" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C226" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="D226" s="38">
-        <v>1</v>
-      </c>
-      <c r="E226" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="F226" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="G226" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="H226" s="50" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F227" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G227" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="H227" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="I227" s="22">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D228" s="50">
-        <v>2</v>
-      </c>
-      <c r="E228" s="77" t="s">
-        <v>544</v>
-      </c>
-      <c r="F228" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="G228" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H228" s="53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="D229" s="50"/>
-      <c r="E229" s="77"/>
-      <c r="F229" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="G229" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H229" s="53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
-      <c r="D230" s="50"/>
-      <c r="E230" s="77"/>
-      <c r="F230" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="G230" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H230" s="53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" ht="29" x14ac:dyDescent="0.25">
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
-      <c r="D231" s="50">
-        <v>3</v>
-      </c>
-      <c r="E231" s="77" t="s">
-        <v>547</v>
-      </c>
-      <c r="F231" s="40"/>
-      <c r="G231" s="40" t="s">
-        <v>548</v>
-      </c>
-      <c r="H231" s="53" t="s">
-        <v>549</v>
-      </c>
-      <c r="I231" s="22">
-        <v>1026</v>
-      </c>
-    </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="G232" s="40"/>
+      <c r="H232" s="38"/>
     </row>
     <row r="233" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B233" s="38" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D233" s="38">
         <v>1</v>
       </c>
       <c r="E233" s="23" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F233" s="22" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G233" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="H233" s="38" t="s">
-        <v>426</v>
+        <v>308</v>
+      </c>
+      <c r="H233" s="50" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F234" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G234" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H234" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="I234" s="22">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D235" s="50">
+        <v>2</v>
+      </c>
+      <c r="E235" s="77" t="s">
+        <v>544</v>
+      </c>
+      <c r="F235" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G235" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H235" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D236" s="50"/>
+      <c r="E236" s="77"/>
+      <c r="F236" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G236" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H236" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B237" s="22"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="50"/>
+      <c r="E237" s="77"/>
+      <c r="F237" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="G237" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H237" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="50">
+        <v>3</v>
+      </c>
+      <c r="E238" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="F238" s="40"/>
+      <c r="G238" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="H238" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="I238" s="22">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="G239" s="40"/>
+    </row>
+    <row r="240" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B240" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C240" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D240" s="38">
+        <v>1</v>
+      </c>
+      <c r="E240" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F240" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G240" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H240" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F241" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G234" s="22" t="s">
+      <c r="G241" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="H234" s="38" t="s">
+      <c r="H241" s="38" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F235" s="22" t="s">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F242" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="G235" s="22" t="s">
+      <c r="G242" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="H235" s="38" t="s">
+      <c r="H242" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D236" s="38">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D243" s="38">
         <v>2</v>
       </c>
-      <c r="E236" s="23" t="s">
+      <c r="E243" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="F236" s="22" t="s">
+      <c r="F243" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G236" s="22" t="s">
+      <c r="G243" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="H236" s="38" t="s">
+      <c r="H243" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F237" s="22" t="s">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F244" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="G237" s="22" t="s">
+      <c r="G244" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="H237" s="38" t="s">
+      <c r="H244" s="38" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F238" s="76" t="s">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F245" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="G238" s="76" t="s">
+      <c r="G245" s="76" t="s">
+        <v>579</v>
+      </c>
+      <c r="H245" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="J245" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F246" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="G246" s="76" t="s">
         <v>580</v>
       </c>
-      <c r="H238" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F239" s="76" t="s">
-        <v>338</v>
-      </c>
-      <c r="G239" s="76" t="s">
-        <v>581</v>
-      </c>
-      <c r="H239" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F240" s="22" t="s">
+      <c r="H246" s="49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F247" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G240" s="22" t="s">
+      <c r="G247" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="H240" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F241" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="G241" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="H241" s="38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F242" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G242" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="H242" s="38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F243" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="G243" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="H243" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F244" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="G244" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="H244" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D245" s="38">
-        <v>3</v>
-      </c>
-      <c r="E245" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="G245" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="H245" s="38" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H246" s="38"/>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B247" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="C247" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="D247" s="38">
-        <v>1</v>
-      </c>
-      <c r="E247" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="F247" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="G247" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="H247" s="38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F248" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G248" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H248" s="38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F249" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G249" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H249" s="38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F250" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G250" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H250" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F251" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G251" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H251" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D252" s="38">
+        <v>3</v>
+      </c>
+      <c r="E252" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G252" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="H252" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H253" s="38"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B254" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="C254" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="D254" s="38">
+        <v>1</v>
+      </c>
+      <c r="E254" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="F254" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G254" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H254" s="38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F255" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="G248" s="22" t="s">
+      <c r="G255" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="H248" s="38" t="s">
+      <c r="H255" s="38" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D249" s="38">
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D256" s="38">
         <v>2</v>
       </c>
-      <c r="E249" s="23" t="s">
+      <c r="E256" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="G249" s="22" t="s">
+      <c r="G256" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="H249" s="38" t="s">
+      <c r="H256" s="38" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H250" s="38"/>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B251" s="74" t="s">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H257" s="38"/>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="C258" s="74" t="s">
         <v>582</v>
       </c>
-      <c r="C251" s="74" t="s">
+      <c r="D258" s="74">
+        <v>1</v>
+      </c>
+      <c r="E258" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="D251" s="74">
-        <v>1</v>
-      </c>
-      <c r="E251" s="75" t="s">
+      <c r="F258" s="76"/>
+      <c r="G258" s="76" t="s">
         <v>584</v>
       </c>
-      <c r="F251" s="76"/>
-      <c r="G251" s="76" t="s">
+      <c r="H258" s="49" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="74"/>
+      <c r="C259" s="74"/>
+      <c r="D259" s="74">
+        <v>2</v>
+      </c>
+      <c r="E259" s="75" t="s">
         <v>585</v>
       </c>
-      <c r="H251" s="38"/>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B252" s="74"/>
-      <c r="C252" s="74"/>
-      <c r="D252" s="74">
-        <v>2</v>
-      </c>
-      <c r="E252" s="75" t="s">
+      <c r="F259" s="76"/>
+      <c r="G259" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="F252" s="76"/>
-      <c r="G252" s="76" t="s">
-        <v>587</v>
+      <c r="H259" s="49" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H233:H246 H17:H231">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+  <conditionalFormatting sqref="H240:H253 H17:H238">
+    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H233:H246 H17:H231">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+  <conditionalFormatting sqref="H240:H253 H17:H238">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J115 J132">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="14">
+  <conditionalFormatting sqref="J115 J137">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="17">
       <formula>LEN(TRIM(J115))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H247:H251">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="H254:H257">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H247:H251">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+  <conditionalFormatting sqref="H254:H257">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H258:H259">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H258:H259">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7411,401 +7775,455 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="3" max="4" width="62.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="54" t="s">
         <v>475</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="56" t="s">
         <v>478</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="C3" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
         <v>481</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55" t="s">
+      <c r="C4" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="56" t="s">
         <v>484</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55" t="s">
+      <c r="C5" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="56" t="s">
         <v>487</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55" t="s">
+      <c r="C6" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="60" t="s">
         <v>490</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="C7" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="D7" s="49" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="56" t="s">
         <v>493</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55" t="s">
+      <c r="C8" s="55" t="s">
         <v>495</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="58" t="s">
         <v>496</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54" t="s">
+      <c r="C10" s="54" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="56" t="s">
         <v>498</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>499</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55" t="s">
+      <c r="C11" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="D11" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="K11">
+      <c r="E11">
         <v>938</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="58" t="s">
         <v>496</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="54" t="s">
+      <c r="C13" s="54" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="56" t="s">
         <v>501</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55" t="s">
+      <c r="C14" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="K14">
+      <c r="E14">
         <v>938</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="58" t="s">
         <v>496</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>503</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="54" t="s">
+      <c r="C16" s="54" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="56" t="s">
         <v>518</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="D17" s="38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="54" t="s">
+        <v>476</v>
+      </c>
       <c r="C19" s="54" t="s">
-        <v>476</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="54" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="55" t="s">
+        <v>520</v>
+      </c>
       <c r="C20" s="55" t="s">
-        <v>520</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="D20" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="K20">
+      <c r="E20">
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="56" t="s">
         <v>508</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="55" t="s">
+        <v>509</v>
+      </c>
       <c r="C21" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="D21" s="38" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="55" t="s">
+        <v>512</v>
+      </c>
       <c r="C22" s="55" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D22" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="55" t="s">
+        <v>514</v>
+      </c>
       <c r="C23" s="55" t="s">
-        <v>514</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55" t="s">
         <v>515</v>
       </c>
-      <c r="J23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>613</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="79" t="s">
+        <v>593</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="59"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="59"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="59"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D29">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D29">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
